--- a/src/main/webapp/WEB-INF/books/dynamicChart.xlsx
+++ b/src/main/webapp/WEB-INF/books/dynamicChart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hawk/Documents/workspace/KEIKAI-SPACE/dev-ref/src/main/webapp/WEB-INF/books/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CA1F7E-A8C5-B446-920B-C48F2FC7CF50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31116C1A-B035-4146-9841-553BB9F983C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{43A1FCBE-B5E9-854A-9009-BB634765E66A}"/>
+    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{43A1FCBE-B5E9-854A-9009-BB634765E66A}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>material</t>
   </si>
@@ -91,12 +91,18 @@
   <si>
     <t>users can enter more data rows in column A:B without modify the source data range</t>
   </si>
+  <si>
+    <t>ideas from</t>
+  </si>
+  <si>
+    <t>https://www.educba.com/dynamic-chart-in-excel/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,6 +114,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,14 +144,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -2282,15 +2299,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8514DBF1-8ED1-AA40-B6B0-EFB4E36158E4}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2301,7 +2318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2312,15 +2329,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>45</v>
       </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2328,7 +2351,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2336,7 +2359,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2345,10 +2368,13 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{AB3056DF-BFA2-344C-9703-36CC13EF9A23}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2357,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3648EAB-5586-124F-BDA0-45B7E9030EC0}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
